--- a/成果物/30_詳細設計/1_詳細設計_新規登録.xlsx
+++ b/成果物/30_詳細設計/1_詳細設計_新規登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\グループディスカッション\グループ開発\30_詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file-srv\share\05_グループ開発\グループD\成果物\30_詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B59FD9-5433-4027-81D9-12E43CB8D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38868609-A784-4941-B1CE-A678D79C9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="75" windowWidth="15285" windowHeight="10245" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新規登録" sheetId="5" r:id="rId1"/>
@@ -257,19 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>・入力されたlogin_nameがBDにない場合、登録する。</t>
-    <rPh sb="1" eb="3">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ﾊﾞｱｲ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ﾄｳﾛｸ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DBにある場合は、モーダルをもう一度表示しなおす。</t>
     <rPh sb="5" eb="7">
       <t>ﾊﾞｱｲ</t>
@@ -401,6 +388,19 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ｴﾗ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>・入力されたlogin_nameがDBにない場合、登録する。</t>
+    <rPh sb="1" eb="3">
+      <t>ﾆｭｳﾘｮｸ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ﾊﾞｱｲ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ﾄｳﾛｸ</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,17 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,9 +739,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1037,7 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:FD104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1156,64 +1158,64 @@
       <c r="FD1" s="3"/>
     </row>
     <row r="2" spans="2:160" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="28" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="29">
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27">
         <v>44365</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="30"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="28"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
@@ -1242,61 +1244,61 @@
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
-      <c r="CJ2" s="31"/>
-      <c r="CK2" s="31"/>
-      <c r="CL2" s="31"/>
-      <c r="CM2" s="31"/>
-      <c r="CN2" s="31"/>
-      <c r="CO2" s="31"/>
-      <c r="CP2" s="31"/>
-      <c r="CQ2" s="31"/>
-      <c r="CR2" s="31"/>
-      <c r="CS2" s="31"/>
-      <c r="CT2" s="31"/>
-      <c r="CU2" s="31"/>
-      <c r="CV2" s="31"/>
-      <c r="CW2" s="31"/>
-      <c r="CX2" s="31"/>
-      <c r="CY2" s="31"/>
-      <c r="CZ2" s="31"/>
-      <c r="DA2" s="31"/>
-      <c r="DB2" s="31"/>
-      <c r="DC2" s="31"/>
-      <c r="DD2" s="31"/>
-      <c r="DE2" s="31"/>
-      <c r="DF2" s="31"/>
-      <c r="DG2" s="31"/>
-      <c r="DH2" s="31"/>
-      <c r="DI2" s="31"/>
-      <c r="DJ2" s="31"/>
-      <c r="DK2" s="31"/>
-      <c r="DL2" s="31"/>
-      <c r="DM2" s="31"/>
-      <c r="DN2" s="31"/>
-      <c r="DO2" s="31"/>
-      <c r="DP2" s="31"/>
-      <c r="DQ2" s="31"/>
-      <c r="DR2" s="31"/>
-      <c r="DS2" s="31"/>
-      <c r="DT2" s="31"/>
-      <c r="DU2" s="31"/>
-      <c r="DV2" s="31"/>
-      <c r="DW2" s="20"/>
-      <c r="DX2" s="20"/>
-      <c r="DY2" s="20"/>
-      <c r="DZ2" s="20"/>
-      <c r="EA2" s="20"/>
-      <c r="EB2" s="20"/>
-      <c r="EC2" s="16"/>
-      <c r="ED2" s="16"/>
-      <c r="EE2" s="16"/>
-      <c r="EF2" s="16"/>
-      <c r="EG2" s="16"/>
-      <c r="EH2" s="16"/>
-      <c r="EI2" s="16"/>
-      <c r="EJ2" s="16"/>
-      <c r="EK2" s="16"/>
-      <c r="EL2" s="16"/>
+      <c r="CJ2" s="29"/>
+      <c r="CK2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CM2" s="29"/>
+      <c r="CN2" s="29"/>
+      <c r="CO2" s="29"/>
+      <c r="CP2" s="29"/>
+      <c r="CQ2" s="29"/>
+      <c r="CR2" s="29"/>
+      <c r="CS2" s="29"/>
+      <c r="CT2" s="29"/>
+      <c r="CU2" s="29"/>
+      <c r="CV2" s="29"/>
+      <c r="CW2" s="29"/>
+      <c r="CX2" s="29"/>
+      <c r="CY2" s="29"/>
+      <c r="CZ2" s="29"/>
+      <c r="DA2" s="29"/>
+      <c r="DB2" s="29"/>
+      <c r="DC2" s="29"/>
+      <c r="DD2" s="29"/>
+      <c r="DE2" s="29"/>
+      <c r="DF2" s="29"/>
+      <c r="DG2" s="29"/>
+      <c r="DH2" s="29"/>
+      <c r="DI2" s="29"/>
+      <c r="DJ2" s="29"/>
+      <c r="DK2" s="29"/>
+      <c r="DL2" s="29"/>
+      <c r="DM2" s="29"/>
+      <c r="DN2" s="29"/>
+      <c r="DO2" s="29"/>
+      <c r="DP2" s="29"/>
+      <c r="DQ2" s="29"/>
+      <c r="DR2" s="29"/>
+      <c r="DS2" s="29"/>
+      <c r="DT2" s="29"/>
+      <c r="DU2" s="29"/>
+      <c r="DV2" s="29"/>
+      <c r="DW2" s="18"/>
+      <c r="DX2" s="18"/>
+      <c r="DY2" s="18"/>
+      <c r="DZ2" s="18"/>
+      <c r="EA2" s="18"/>
+      <c r="EB2" s="18"/>
+      <c r="EC2" s="33"/>
+      <c r="ED2" s="33"/>
+      <c r="EE2" s="33"/>
+      <c r="EF2" s="33"/>
+      <c r="EG2" s="33"/>
+      <c r="EH2" s="33"/>
+      <c r="EI2" s="33"/>
+      <c r="EJ2" s="33"/>
+      <c r="EK2" s="33"/>
+      <c r="EL2" s="33"/>
       <c r="EM2" s="3"/>
       <c r="EN2" s="3"/>
       <c r="EO2" s="3"/>
@@ -1317,62 +1319,62 @@
       <c r="FD2" s="3"/>
     </row>
     <row r="3" spans="2:160" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="17" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="18" t="s">
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="19"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="17"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
@@ -1401,61 +1403,61 @@
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="31"/>
-      <c r="CO3" s="31"/>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="31"/>
-      <c r="CR3" s="31"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="31"/>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="31"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="31"/>
-      <c r="DA3" s="31"/>
-      <c r="DB3" s="31"/>
-      <c r="DC3" s="31"/>
-      <c r="DD3" s="31"/>
-      <c r="DE3" s="31"/>
-      <c r="DF3" s="31"/>
-      <c r="DG3" s="31"/>
-      <c r="DH3" s="31"/>
-      <c r="DI3" s="31"/>
-      <c r="DJ3" s="31"/>
-      <c r="DK3" s="31"/>
-      <c r="DL3" s="31"/>
-      <c r="DM3" s="31"/>
-      <c r="DN3" s="31"/>
-      <c r="DO3" s="31"/>
-      <c r="DP3" s="31"/>
-      <c r="DQ3" s="31"/>
-      <c r="DR3" s="31"/>
-      <c r="DS3" s="31"/>
-      <c r="DT3" s="31"/>
-      <c r="DU3" s="31"/>
-      <c r="DV3" s="31"/>
-      <c r="DW3" s="20"/>
-      <c r="DX3" s="20"/>
-      <c r="DY3" s="20"/>
-      <c r="DZ3" s="20"/>
-      <c r="EA3" s="20"/>
-      <c r="EB3" s="20"/>
-      <c r="EC3" s="21"/>
-      <c r="ED3" s="21"/>
-      <c r="EE3" s="21"/>
-      <c r="EF3" s="21"/>
-      <c r="EG3" s="21"/>
-      <c r="EH3" s="21"/>
-      <c r="EI3" s="21"/>
-      <c r="EJ3" s="21"/>
-      <c r="EK3" s="21"/>
-      <c r="EL3" s="21"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
+      <c r="CS3" s="29"/>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="29"/>
+      <c r="CX3" s="29"/>
+      <c r="CY3" s="29"/>
+      <c r="CZ3" s="29"/>
+      <c r="DA3" s="29"/>
+      <c r="DB3" s="29"/>
+      <c r="DC3" s="29"/>
+      <c r="DD3" s="29"/>
+      <c r="DE3" s="29"/>
+      <c r="DF3" s="29"/>
+      <c r="DG3" s="29"/>
+      <c r="DH3" s="29"/>
+      <c r="DI3" s="29"/>
+      <c r="DJ3" s="29"/>
+      <c r="DK3" s="29"/>
+      <c r="DL3" s="29"/>
+      <c r="DM3" s="29"/>
+      <c r="DN3" s="29"/>
+      <c r="DO3" s="29"/>
+      <c r="DP3" s="29"/>
+      <c r="DQ3" s="29"/>
+      <c r="DR3" s="29"/>
+      <c r="DS3" s="29"/>
+      <c r="DT3" s="29"/>
+      <c r="DU3" s="29"/>
+      <c r="DV3" s="29"/>
+      <c r="DW3" s="18"/>
+      <c r="DX3" s="18"/>
+      <c r="DY3" s="18"/>
+      <c r="DZ3" s="18"/>
+      <c r="EA3" s="18"/>
+      <c r="EB3" s="18"/>
+      <c r="EC3" s="19"/>
+      <c r="ED3" s="19"/>
+      <c r="EE3" s="19"/>
+      <c r="EF3" s="19"/>
+      <c r="EG3" s="19"/>
+      <c r="EH3" s="19"/>
+      <c r="EI3" s="19"/>
+      <c r="EJ3" s="19"/>
+      <c r="EK3" s="19"/>
+      <c r="EL3" s="19"/>
       <c r="EM3" s="3"/>
       <c r="EN3" s="3"/>
       <c r="EO3" s="3"/>
@@ -1946,7 +1948,7 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F7"/>
@@ -2103,7 +2105,7 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F8"/>
@@ -2260,7 +2262,7 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F9"/>
@@ -2417,7 +2419,7 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="13"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -2729,7 +2731,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F12"/>
@@ -2747,7 +2749,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="V12"/>
@@ -3667,7 +3669,7 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F18"/>
@@ -4136,7 +4138,7 @@
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F21"/>
@@ -4293,7 +4295,7 @@
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="13"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -4482,7 +4484,7 @@
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
-      <c r="AK23" s="32"/>
+      <c r="AK23" s="13"/>
       <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
@@ -4605,7 +4607,7 @@
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F24"/>
@@ -4639,7 +4641,7 @@
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
-      <c r="AK24" s="32"/>
+      <c r="AK24" s="13"/>
       <c r="AL24"/>
       <c r="AM24"/>
       <c r="AN24"/>
@@ -4763,7 +4765,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="13"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -4794,7 +4796,7 @@
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
-      <c r="AK25" s="32"/>
+      <c r="AK25" s="13"/>
       <c r="AL25"/>
       <c r="AM25"/>
       <c r="AN25"/>
@@ -4918,7 +4920,7 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G26"/>
@@ -4951,7 +4953,7 @@
       <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26"/>
-      <c r="AK26" s="32"/>
+      <c r="AK26" s="13"/>
       <c r="AL26"/>
       <c r="AM26"/>
       <c r="AN26"/>
@@ -5075,7 +5077,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G27"/>
@@ -5105,7 +5107,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27"/>
-      <c r="AH27" s="32" t="s">
+      <c r="AH27" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AI27"/>
@@ -5234,7 +5236,7 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="13"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -5251,7 +5253,7 @@
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
-      <c r="AK28" s="32"/>
+      <c r="AK28" s="13"/>
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
@@ -5375,7 +5377,7 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G29"/>
@@ -5408,7 +5410,7 @@
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
-      <c r="AK29" s="32"/>
+      <c r="AK29" s="13"/>
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
@@ -5532,8 +5534,8 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="G30" s="32" t="s">
-        <v>26</v>
+      <c r="G30" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -5554,7 +5556,7 @@
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
-      <c r="AB30" s="32" t="s">
+      <c r="AB30" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AC30"/>
@@ -5564,7 +5566,7 @@
       <c r="AG30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
-      <c r="AK30" s="32"/>
+      <c r="AK30" s="13"/>
       <c r="AL30"/>
       <c r="AM30"/>
       <c r="AN30"/>
@@ -5717,7 +5719,7 @@
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
-      <c r="AK31" s="32"/>
+      <c r="AK31" s="13"/>
       <c r="AL31"/>
       <c r="AM31"/>
       <c r="AN31"/>
@@ -5841,8 +5843,8 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="32" t="s">
-        <v>24</v>
+      <c r="F32" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -5874,7 +5876,7 @@
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
-      <c r="AK32" s="32"/>
+      <c r="AK32" s="13"/>
       <c r="AL32"/>
       <c r="AM32"/>
       <c r="AN32"/>
@@ -5998,9 +6000,9 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32" t="s">
-        <v>25</v>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -6020,7 +6022,7 @@
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
-      <c r="AA33" s="32" t="s">
+      <c r="AA33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AB33"/>
@@ -6032,7 +6034,7 @@
       <c r="AH33"/>
       <c r="AI33"/>
       <c r="AJ33"/>
-      <c r="AK33" s="32"/>
+      <c r="AK33" s="13"/>
       <c r="AL33"/>
       <c r="AM33"/>
       <c r="AN33"/>
@@ -6156,9 +6158,9 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="13"/>
       <c r="G34"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="13"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -6187,7 +6189,7 @@
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
-      <c r="AK34" s="32"/>
+      <c r="AK34" s="13"/>
       <c r="AL34"/>
       <c r="AM34"/>
       <c r="AN34"/>
@@ -6311,8 +6313,8 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="32" t="s">
-        <v>27</v>
+      <c r="F35" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -6344,7 +6346,7 @@
       <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
-      <c r="AK35" s="32"/>
+      <c r="AK35" s="13"/>
       <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
@@ -6468,7 +6470,7 @@
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H36"/>
@@ -6500,7 +6502,7 @@
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
-      <c r="AK36" s="32"/>
+      <c r="AK36" s="13"/>
       <c r="AL36"/>
       <c r="AM36"/>
       <c r="AN36"/>
@@ -6624,8 +6626,8 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="H37" s="32" t="s">
-        <v>29</v>
+      <c r="H37" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -6654,7 +6656,7 @@
       <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37"/>
-      <c r="AK37" s="32"/>
+      <c r="AK37" s="13"/>
       <c r="AL37"/>
       <c r="AM37"/>
       <c r="AN37"/>
@@ -6778,8 +6780,8 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="G38" s="32" t="s">
-        <v>30</v>
+      <c r="G38" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -6809,7 +6811,7 @@
       <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38"/>
-      <c r="AK38" s="32"/>
+      <c r="AK38" s="13"/>
       <c r="AL38"/>
       <c r="AM38"/>
       <c r="AN38"/>
@@ -6933,9 +6935,9 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33" t="s">
-        <v>31</v>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -6965,7 +6967,7 @@
       <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
-      <c r="AK39" s="32"/>
+      <c r="AK39" s="13"/>
       <c r="AL39"/>
       <c r="AM39"/>
       <c r="AN39"/>
@@ -7089,10 +7091,10 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="G40" s="32" t="s">
-        <v>32</v>
+      <c r="G40" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="H40" s="33"/>
+      <c r="H40" s="14"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -7121,7 +7123,7 @@
       <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40"/>
-      <c r="AK40" s="32"/>
+      <c r="AK40" s="13"/>
       <c r="AL40"/>
       <c r="AM40"/>
       <c r="AN40"/>
@@ -7245,9 +7247,9 @@
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33" t="s">
-        <v>33</v>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -7277,7 +7279,7 @@
       <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41"/>
-      <c r="AK41" s="32"/>
+      <c r="AK41" s="13"/>
       <c r="AL41"/>
       <c r="AM41"/>
       <c r="AN41"/>
@@ -7402,8 +7404,8 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="32" t="s">
-        <v>34</v>
+      <c r="G42" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -7433,7 +7435,7 @@
       <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42"/>
-      <c r="AK42" s="32"/>
+      <c r="AK42" s="13"/>
       <c r="AL42"/>
       <c r="AM42"/>
       <c r="AN42"/>
@@ -7559,8 +7561,8 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" s="32" t="s">
-        <v>35</v>
+      <c r="H43" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -7870,8 +7872,8 @@
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45" s="32" t="s">
-        <v>28</v>
+      <c r="G45" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -8029,8 +8031,8 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="32" t="s">
-        <v>36</v>
+      <c r="H46" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -9190,61 +9192,61 @@
       <c r="CG53" s="3"/>
       <c r="CH53" s="3"/>
       <c r="CI53" s="3"/>
-      <c r="CJ53" s="13"/>
-      <c r="CK53" s="13"/>
-      <c r="CL53" s="13"/>
-      <c r="CM53" s="13"/>
-      <c r="CN53" s="14"/>
-      <c r="CO53" s="14"/>
-      <c r="CP53" s="14"/>
-      <c r="CQ53" s="14"/>
-      <c r="CR53" s="13"/>
-      <c r="CS53" s="13"/>
-      <c r="CT53" s="13"/>
-      <c r="CU53" s="13"/>
-      <c r="CV53" s="15"/>
-      <c r="CW53" s="15"/>
-      <c r="CX53" s="15"/>
-      <c r="CY53" s="15"/>
-      <c r="CZ53" s="15"/>
-      <c r="DA53" s="15"/>
-      <c r="DB53" s="15"/>
-      <c r="DC53" s="15"/>
-      <c r="DD53" s="15"/>
-      <c r="DE53" s="15"/>
-      <c r="DF53" s="15"/>
-      <c r="DG53" s="15"/>
-      <c r="DH53" s="15"/>
-      <c r="DI53" s="15"/>
-      <c r="DJ53" s="15"/>
-      <c r="DK53" s="15"/>
-      <c r="DL53" s="15"/>
-      <c r="DM53" s="15"/>
-      <c r="DN53" s="15"/>
-      <c r="DO53" s="15"/>
-      <c r="DP53" s="15"/>
-      <c r="DQ53" s="15"/>
-      <c r="DR53" s="15"/>
-      <c r="DS53" s="15"/>
-      <c r="DT53" s="15"/>
-      <c r="DU53" s="15"/>
-      <c r="DV53" s="15"/>
-      <c r="DW53" s="15"/>
-      <c r="DX53" s="15"/>
-      <c r="DY53" s="15"/>
-      <c r="DZ53" s="15"/>
-      <c r="EA53" s="15"/>
-      <c r="EB53" s="15"/>
-      <c r="EC53" s="15"/>
-      <c r="ED53" s="15"/>
-      <c r="EE53" s="15"/>
-      <c r="EF53" s="15"/>
-      <c r="EG53" s="15"/>
-      <c r="EH53" s="15"/>
-      <c r="EI53" s="15"/>
-      <c r="EJ53" s="15"/>
-      <c r="EK53" s="15"/>
-      <c r="EL53" s="15"/>
+      <c r="CJ53" s="30"/>
+      <c r="CK53" s="30"/>
+      <c r="CL53" s="30"/>
+      <c r="CM53" s="30"/>
+      <c r="CN53" s="31"/>
+      <c r="CO53" s="31"/>
+      <c r="CP53" s="31"/>
+      <c r="CQ53" s="31"/>
+      <c r="CR53" s="30"/>
+      <c r="CS53" s="30"/>
+      <c r="CT53" s="30"/>
+      <c r="CU53" s="30"/>
+      <c r="CV53" s="32"/>
+      <c r="CW53" s="32"/>
+      <c r="CX53" s="32"/>
+      <c r="CY53" s="32"/>
+      <c r="CZ53" s="32"/>
+      <c r="DA53" s="32"/>
+      <c r="DB53" s="32"/>
+      <c r="DC53" s="32"/>
+      <c r="DD53" s="32"/>
+      <c r="DE53" s="32"/>
+      <c r="DF53" s="32"/>
+      <c r="DG53" s="32"/>
+      <c r="DH53" s="32"/>
+      <c r="DI53" s="32"/>
+      <c r="DJ53" s="32"/>
+      <c r="DK53" s="32"/>
+      <c r="DL53" s="32"/>
+      <c r="DM53" s="32"/>
+      <c r="DN53" s="32"/>
+      <c r="DO53" s="32"/>
+      <c r="DP53" s="32"/>
+      <c r="DQ53" s="32"/>
+      <c r="DR53" s="32"/>
+      <c r="DS53" s="32"/>
+      <c r="DT53" s="32"/>
+      <c r="DU53" s="32"/>
+      <c r="DV53" s="32"/>
+      <c r="DW53" s="32"/>
+      <c r="DX53" s="32"/>
+      <c r="DY53" s="32"/>
+      <c r="DZ53" s="32"/>
+      <c r="EA53" s="32"/>
+      <c r="EB53" s="32"/>
+      <c r="EC53" s="32"/>
+      <c r="ED53" s="32"/>
+      <c r="EE53" s="32"/>
+      <c r="EF53" s="32"/>
+      <c r="EG53" s="32"/>
+      <c r="EH53" s="32"/>
+      <c r="EI53" s="32"/>
+      <c r="EJ53" s="32"/>
+      <c r="EK53" s="32"/>
+      <c r="EL53" s="32"/>
       <c r="EM53" s="3"/>
       <c r="EN53" s="3"/>
       <c r="EO53" s="3"/>
@@ -16100,6 +16102,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="CJ53:CM53"/>
+    <mergeCell ref="CN53:CQ53"/>
+    <mergeCell ref="CR53:CU53"/>
+    <mergeCell ref="CV53:EL53"/>
+    <mergeCell ref="EC2:EL2"/>
     <mergeCell ref="AL3:AQ3"/>
     <mergeCell ref="AR3:BA3"/>
     <mergeCell ref="DW3:EB3"/>
@@ -16109,11 +16116,6 @@
     <mergeCell ref="AR2:BA2"/>
     <mergeCell ref="CJ2:DV3"/>
     <mergeCell ref="DW2:EB2"/>
-    <mergeCell ref="CJ53:CM53"/>
-    <mergeCell ref="CN53:CQ53"/>
-    <mergeCell ref="CR53:CU53"/>
-    <mergeCell ref="CV53:EL53"/>
-    <mergeCell ref="EC2:EL2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
